--- a/data/Subset2_WithDialogActs/TalkBack.Year1.Barry.Spring.030220-1.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset2_WithDialogActs/TalkBack.Year1.Barry.Spring.030220-1.xlsx_with_dialog_acts.xlsx
@@ -765,12 +765,12 @@
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -807,12 +807,12 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -933,12 +933,12 @@
       <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -1059,12 +1059,12 @@
       <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -1185,12 +1185,12 @@
       <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -1269,12 +1269,12 @@
       <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -1865,12 +1865,12 @@
       <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2289,12 +2289,12 @@
       <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3053,12 +3053,12 @@
       <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3389,12 +3389,12 @@
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -3431,12 +3431,12 @@
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -3641,12 +3641,12 @@
       <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4229,12 +4229,12 @@
       <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5085,12 +5085,12 @@
       <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5127,12 +5127,12 @@
       <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5169,12 +5169,12 @@
       <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5975,12 +5975,12 @@
       <c r="H131" t="inlineStr"/>
       <c r="I131" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -6815,12 +6815,12 @@
       <c r="H151" t="inlineStr"/>
       <c r="I151" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J151" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
